--- a/训练集和测试集在不同参数下的Loss和Accuracy_特征提取.xlsx
+++ b/训练集和测试集在不同参数下的Loss和Accuracy_特征提取.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alien/Documents/d盘/python/本科毕设/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2AFEC7C-5C4F-E549-9088-F013C35E601B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B212EE73-336B-DC46-8C63-8D272F04FA25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" xr2:uid="{906320B1-2146-9945-BE93-DD7A18BC371B}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -132,6 +129,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3CB831-74DA-4E45-8239-5439C723EBB1}">
   <dimension ref="A3:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="141" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -459,68 +459,68 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="I5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
@@ -561,13 +561,13 @@
       <c r="B8">
         <v>0.1464</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D8">
         <v>0.16170000000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0.92310000000000003</v>
       </c>
       <c r="I8" s="1">
@@ -576,13 +576,13 @@
       <c r="J8">
         <v>0.1628</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0.92159999999999997</v>
       </c>
       <c r="L8">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -593,29 +593,29 @@
       <c r="B9">
         <v>0.1628</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.92159999999999997</v>
       </c>
       <c r="D9">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>20</v>
       </c>
       <c r="J9">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.96079999999999999</v>
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.94120000000000004</v>
       </c>
       <c r="L9">
-        <v>0.28179999999999999</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="M9" s="3">
-        <v>0.84619999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -625,13 +625,13 @@
       <c r="B10">
         <v>0.1196</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D10">
         <v>0.1409</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>0.92310000000000003</v>
       </c>
       <c r="I10" s="1">
@@ -657,13 +657,13 @@
       <c r="B11">
         <v>0.19969999999999999</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.92159999999999997</v>
       </c>
       <c r="D11">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="I11" s="1">
@@ -689,13 +689,13 @@
       <c r="B12">
         <v>0.1139</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.96799999999999997</v>
       </c>
       <c r="D12">
         <v>0.34310000000000002</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>0.84619999999999995</v>
       </c>
       <c r="I12" s="1">
@@ -715,40 +715,40 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
@@ -777,10 +777,10 @@
       <c r="C21" s="3">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>1.4596999999999999E-5</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -791,13 +791,13 @@
       <c r="B22">
         <v>0.1074</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D22">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>0.92310000000000003</v>
       </c>
     </row>
@@ -808,13 +808,13 @@
       <c r="B23">
         <v>0.1628</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>0.92159999999999997</v>
       </c>
       <c r="D23">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>1</v>
       </c>
     </row>
@@ -825,20 +825,20 @@
       <c r="B24">
         <v>0.1794</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>0.94120000000000004</v>
       </c>
       <c r="D24">
         <v>0.19109999999999999</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>0.92310000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
